--- a/data/trans_dic/P74B-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05282111387699401</v>
+        <v>0.05167073980576574</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07610639475488475</v>
+        <v>0.07894259333104546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.093637072083705</v>
+        <v>0.09579530181971448</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7408175869248411</v>
+        <v>0.7402159798340744</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4717330773428456</v>
+        <v>0.4773560603636645</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4532651398645077</v>
+        <v>0.4593047120962834</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3528108098385243</v>
+        <v>0.3545823525698337</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2562010478549928</v>
+        <v>0.2559158954980809</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2586372634663363</v>
+        <v>0.2592155471285349</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1180119726044193</v>
+        <v>0.1172511853575081</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1411145510938757</v>
+        <v>0.1388507593994485</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1545587235112335</v>
+        <v>0.1543808479407012</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8488969797869708</v>
+        <v>0.8486880447458649</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5784081135154587</v>
+        <v>0.5838562018021971</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5549488551005953</v>
+        <v>0.5564474647405512</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4400498225548511</v>
+        <v>0.4413498042667683</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3219202324760096</v>
+        <v>0.3226973764386611</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.323907422057278</v>
+        <v>0.3191572570152962</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04960155284395076</v>
+        <v>0.04857339814530686</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06981678066290087</v>
+        <v>0.06649949163534723</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1020810752810867</v>
+        <v>0.1067804393142062</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7601570157960212</v>
+        <v>0.7512219541216819</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6229863483494589</v>
+        <v>0.6260221764531984</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6373149805188192</v>
+        <v>0.6335738540041532</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2430545572180765</v>
+        <v>0.2449799154838522</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2916444578306673</v>
+        <v>0.2931772367261752</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3157234880730303</v>
+        <v>0.3118008464266071</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09450529119473966</v>
+        <v>0.09360305555293455</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1261628382616582</v>
+        <v>0.1283541542089864</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1775324720946671</v>
+        <v>0.1779240729161076</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8666527827365326</v>
+        <v>0.8656400921551958</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7443905368634414</v>
+        <v>0.7437105565402642</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7551832068836072</v>
+        <v>0.7564112857428955</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3073718021538072</v>
+        <v>0.3111786197686198</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3658952800506542</v>
+        <v>0.3695983574437654</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3943528107215745</v>
+        <v>0.3916441029932743</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04766952981745423</v>
+        <v>0.04737207472238864</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1415733250436351</v>
+        <v>0.1402167474091664</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08362843204470267</v>
+        <v>0.08360460648665766</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8101708059121707</v>
+        <v>0.8168933811248986</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.826547822330714</v>
+        <v>0.8298116645551064</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8128559833837937</v>
+        <v>0.816389975475748</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2245089832678383</v>
+        <v>0.2244588981742915</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3943360259314323</v>
+        <v>0.3905726196608035</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3450715306292334</v>
+        <v>0.3456196495625091</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09590845285736102</v>
+        <v>0.09431213671855167</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2287832768935495</v>
+        <v>0.2273464657428393</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1606357881493362</v>
+        <v>0.1593204497136332</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9260973447513097</v>
+        <v>0.9297489121067488</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9206781375152151</v>
+        <v>0.9230068523065028</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9233018959002404</v>
+        <v>0.9273700132308851</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2997569093429622</v>
+        <v>0.296346312180055</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4813182823820145</v>
+        <v>0.4778468986877711</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4350915620623975</v>
+        <v>0.4354187394803343</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04080497149824355</v>
+        <v>0.04541366414457854</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08902852563549639</v>
+        <v>0.08850237494488304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06558951416331348</v>
+        <v>0.06481723266987117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.786490573003883</v>
+        <v>0.7720171924450059</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7334086065375153</v>
+        <v>0.7311789331704627</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7308218535372295</v>
+        <v>0.7287106621933263</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1929833668029828</v>
+        <v>0.19126578837198</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.340998401013811</v>
+        <v>0.3495554969353148</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3056982561200001</v>
+        <v>0.3192918421711888</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1540943212727598</v>
+        <v>0.1535150404129436</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.230774319607557</v>
+        <v>0.2227332923217478</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1653205884029733</v>
+        <v>0.16241547915009</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9780263302081338</v>
+        <v>0.9775809286476266</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.901622317653383</v>
+        <v>0.9020992768092063</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8951750394226339</v>
+        <v>0.9001506045853322</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3268483379054666</v>
+        <v>0.3266842321562493</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4848702078383464</v>
+        <v>0.4843401890318356</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4440041130258345</v>
+        <v>0.4444933933898155</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05977947213007</v>
+        <v>0.05955505672903192</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1076658787316455</v>
+        <v>0.1080378082406399</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1067471488120961</v>
+        <v>0.1069129658338066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7941853498187508</v>
+        <v>0.7959608642515053</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.649524504038241</v>
+        <v>0.6496270202707893</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6222492910524949</v>
+        <v>0.6241983001350475</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2814082773360352</v>
+        <v>0.2776636265690375</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3282863368838478</v>
+        <v>0.326715665127351</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.315850491767891</v>
+        <v>0.3166633367509341</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08749250451397671</v>
+        <v>0.08793529562161348</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1456836872535114</v>
+        <v>0.14606890803533</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1443325840573455</v>
+        <v>0.1443439541779762</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8582745924268099</v>
+        <v>0.8590039161223958</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7153525171542335</v>
+        <v>0.7133625896101432</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6876513972490458</v>
+        <v>0.6873090335457913</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.319909166710005</v>
+        <v>0.3180614284167348</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3688208417936436</v>
+        <v>0.3684116747979115</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3571243987665824</v>
+        <v>0.3594143782897056</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15308</v>
+        <v>14975</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36044</v>
+        <v>37387</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>48315</v>
+        <v>49429</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>166201</v>
+        <v>166066</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>166832</v>
+        <v>168821</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>181194</v>
+        <v>183608</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>181400</v>
+        <v>182311</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>211944</v>
+        <v>211708</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>236843</v>
+        <v>237373</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34201</v>
+        <v>33980</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>66832</v>
+        <v>65760</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>79750</v>
+        <v>79658</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>190448</v>
+        <v>190401</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>204559</v>
+        <v>206485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>221842</v>
+        <v>222441</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>226254</v>
+        <v>226923</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>266310</v>
+        <v>266953</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>296614</v>
+        <v>292264</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25911</v>
+        <v>25374</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29177</v>
+        <v>27791</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39190</v>
+        <v>40994</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>154395</v>
+        <v>152580</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>170206</v>
+        <v>171036</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>148034</v>
+        <v>147165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>176337</v>
+        <v>177733</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>201562</v>
+        <v>202622</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>194545</v>
+        <v>192128</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49369</v>
+        <v>48897</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>52725</v>
+        <v>53641</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>68156</v>
+        <v>68307</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>176025</v>
+        <v>175819</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>203375</v>
+        <v>203189</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>175412</v>
+        <v>175697</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>222999</v>
+        <v>225761</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>252879</v>
+        <v>255438</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>242995</v>
+        <v>241326</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21545</v>
+        <v>21410</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>47008</v>
+        <v>46558</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24808</v>
+        <v>24801</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>111805</v>
+        <v>112733</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>155564</v>
+        <v>156178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>133453</v>
+        <v>134033</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>132452</v>
+        <v>132422</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>205154</v>
+        <v>203196</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>159016</v>
+        <v>159268</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43347</v>
+        <v>42625</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>75966</v>
+        <v>75489</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>47651</v>
+        <v>47261</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>127803</v>
+        <v>128307</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>173280</v>
+        <v>173718</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>151586</v>
+        <v>152254</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>176845</v>
+        <v>174833</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>250407</v>
+        <v>248601</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>200499</v>
+        <v>200650</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5236</v>
+        <v>5827</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13011</v>
+        <v>12935</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9968</v>
+        <v>9851</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26252</v>
+        <v>25769</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>71425</v>
+        <v>71208</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>68783</v>
+        <v>68585</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>31204</v>
+        <v>30927</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>83046</v>
+        <v>85130</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>75232</v>
+        <v>78578</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19773</v>
+        <v>19698</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33727</v>
+        <v>32552</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25126</v>
+        <v>24684</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32646</v>
+        <v>32631</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>87807</v>
+        <v>87854</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>84252</v>
+        <v>84720</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>52849</v>
+        <v>52823</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>118084</v>
+        <v>117955</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>109269</v>
+        <v>109390</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>83242</v>
+        <v>82929</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>147470</v>
+        <v>147980</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>143951</v>
+        <v>144174</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>475588</v>
+        <v>476652</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>592668</v>
+        <v>592761</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>554003</v>
+        <v>555739</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>560372</v>
+        <v>552915</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>749205</v>
+        <v>745620</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>707140</v>
+        <v>708959</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>121831</v>
+        <v>122448</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>199544</v>
+        <v>200071</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>194635</v>
+        <v>194651</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>513967</v>
+        <v>514404</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>652733</v>
+        <v>650918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>612233</v>
+        <v>611928</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>637040</v>
+        <v>633360</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>841711</v>
+        <v>840777</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>799545</v>
+        <v>804672</v>
       </c>
     </row>
     <row r="24">
